--- a/main/combining_norm/data.xlsx
+++ b/main/combining_norm/data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aidan\waldayu_resource_creator\transducers\main\combining_norm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aidan\wmrc-transducers\main\combining_norm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15350" windowHeight="4460"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>á</t>
   </si>
@@ -43,13 +43,25 @@
   </si>
   <si>
     <t>á</t>
+  </si>
+  <si>
+    <t>ō</t>
+  </si>
+  <si>
+    <t>ō</t>
+  </si>
+  <si>
+    <t>í</t>
+  </si>
+  <si>
+    <t>é</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,7 +198,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF545454"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202D4A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -533,10 +572,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -892,53 +936,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/main/combining_norm/data.xlsx
+++ b/main/combining_norm/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,11 +371,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
